--- a/report/src/main/webapp/template/performace.xlsx
+++ b/report/src/main/webapp/template/performace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="业绩明细表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>单据编号</t>
   </si>
@@ -46,22 +46,10 @@
     <t>刷卡</t>
   </si>
   <si>
-    <t>银行转账</t>
-  </si>
-  <si>
-    <t>储值账户</t>
-  </si>
-  <si>
-    <t>在线支付(微信公众号)</t>
-  </si>
-  <si>
-    <t>在线支付(Web页面)</t>
-  </si>
-  <si>
-    <t>冻结账户</t>
-  </si>
-  <si>
-    <t>转出金额</t>
+    <t>转账</t>
+  </si>
+  <si>
+    <t>账户金额</t>
   </si>
   <si>
     <t>转入金额</t>
@@ -76,27 +64,15 @@
     <t>退费作废</t>
   </si>
   <si>
-    <t>理赔基金</t>
-  </si>
-  <si>
     <t>课时/课次</t>
   </si>
   <si>
     <t>客户账号</t>
   </si>
   <si>
-    <t>公司账号名称</t>
-  </si>
-  <si>
-    <t>公司账号</t>
-  </si>
-  <si>
     <t>课程商品</t>
   </si>
   <si>
-    <t>是否教材</t>
-  </si>
-  <si>
     <t>年级</t>
   </si>
   <si>
@@ -112,12 +88,6 @@
     <t>任课教师</t>
   </si>
   <si>
-    <t>辅导教师编码</t>
-  </si>
-  <si>
-    <t>辅导教师</t>
-  </si>
-  <si>
     <t>业绩校区</t>
   </si>
   <si>
@@ -142,9 +112,6 @@
     <t>报班说明</t>
   </si>
   <si>
-    <t>长短类型</t>
-  </si>
-  <si>
     <t>整单优惠</t>
   </si>
   <si>
@@ -187,18 +154,6 @@
     <t>account</t>
   </si>
   <si>
-    <t>eb_price</t>
-  </si>
-  <si>
-    <t>online_price</t>
-  </si>
-  <si>
-    <t>frozen_account</t>
-  </si>
-  <si>
-    <t>transfer_out</t>
-  </si>
-  <si>
     <t>transfer_in</t>
   </si>
   <si>
@@ -211,27 +166,15 @@
     <t>cancel_refund_amount</t>
   </si>
   <si>
-    <t>claim</t>
-  </si>
-  <si>
     <t>course_time</t>
   </si>
   <si>
     <t>customer_account</t>
   </si>
   <si>
-    <t>company_account_name</t>
-  </si>
-  <si>
-    <t>company_account</t>
-  </si>
-  <si>
     <t>course_name</t>
   </si>
   <si>
-    <t>is_textbooks_name</t>
-  </si>
-  <si>
     <t>grade_name</t>
   </si>
   <si>
@@ -247,12 +190,6 @@
     <t>teacher_name</t>
   </si>
   <si>
-    <t>assteacher_encoding</t>
-  </si>
-  <si>
-    <t>assteacher_name</t>
-  </si>
-  <si>
     <t>performance_branch_name</t>
   </si>
   <si>
@@ -275,9 +212,6 @@
   </si>
   <si>
     <t>order_explain</t>
-  </si>
-  <si>
-    <t>short_or_long_name</t>
   </si>
   <si>
     <t>order_rule_name</t>
@@ -291,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -305,14 +239,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -320,17 +351,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,106 +377,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,19 +399,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,163 +555,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,6 +590,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -677,32 +655,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,26 +672,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,148 +695,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,25 +1190,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG$1:AG$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="5" width="10.625" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="31" max="31" width="11.125" customWidth="1"/>
-    <col min="41" max="41" width="13" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="23" max="23" width="11.125" customWidth="1"/>
+    <col min="31" max="31" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1377,175 +1310,109 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
+      <c r="L2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="N2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
+      <c r="P2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="Q2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
+      <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
+      <c r="S2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="T2" t="s">
         <v>53</v>
       </c>
-      <c r="J2" t="s">
+      <c r="U2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="W2" t="s">
         <v>56</v>
       </c>
-      <c r="M2" t="s">
+      <c r="X2" t="s">
         <v>57</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Y2" t="s">
         <v>58</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Z2" t="s">
         <v>59</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AA2" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AB2" t="s">
         <v>61</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AC2" t="s">
         <v>62</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AD2" t="s">
         <v>63</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AE2" t="s">
         <v>64</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AF2" t="s">
         <v>65</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AG2" t="s">
         <v>66</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AH2" t="s">
         <v>67</v>
-      </c>
-      <c r="X2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
